--- a/szetvalaszto/bin/Debug/preferenciak.xlsx
+++ b/szetvalaszto/bin/Debug/preferenciak.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+  <si>
+    <t>Választó</t>
+  </si>
+  <si>
+    <t>Választott</t>
+  </si>
+  <si>
+    <t>PreferenciaPont</t>
+  </si>
+  <si>
+    <t>par5</t>
+  </si>
+  <si>
+    <t>par1</t>
+  </si>
+  <si>
+    <t>par2</t>
+  </si>
+  <si>
+    <t>par3</t>
+  </si>
+  <si>
+    <t>par18</t>
+  </si>
+  <si>
+    <t>par6</t>
+  </si>
+  <si>
+    <t>par7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +87,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +384,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/szetvalaszto/bin/Debug/preferenciak.xlsx
+++ b/szetvalaszto/bin/Debug/preferenciak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>Választó</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>par7</t>
+  </si>
+  <si>
+    <t>par11</t>
+  </si>
+  <si>
+    <t>par4</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,6 +573,39 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/szetvalaszto/bin/Debug/preferenciak.xlsx
+++ b/szetvalaszto/bin/Debug/preferenciak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>Választó</t>
   </si>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,6 +606,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/szetvalaszto/bin/Debug/preferenciak.xlsx
+++ b/szetvalaszto/bin/Debug/preferenciak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>Választó</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>par4</t>
+  </si>
+  <si>
+    <t>par23</t>
+  </si>
+  <si>
+    <t>par10</t>
   </si>
 </sst>
 </file>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,6 +623,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
